--- a/Vet/wwwroot/images/data_17.05.2023.xlsx
+++ b/Vet/wwwroot/images/data_17.05.2023.xlsx
@@ -28,7 +28,7 @@
     <x:t>Диагноз</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> </x:t>
+    <x:t>Виталий Витальевич</x:t>
   </x:si>
   <x:si>
     <x:t>c</x:t>
@@ -41,6 +41,21 @@
   </x:si>
   <x:si>
     <x:t>хороший диагноз</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пес</x:t>
+  </x:si>
+  <x:si>
+    <x:t>противопаразитарные обработки (в последние время наиболее популярны пероральные препараты из группы изоксазолинов), или глюкокортикостероиды в начале лечения.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>отиты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>применять стероиды или шампуни против зуда и антигистаминные препараты,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>дерматиты</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -391,7 +406,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D4"/>
+  <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -438,6 +453,34 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
